--- a/test2.xlsx
+++ b/test2.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="146">
   <si>
     <t>nonword1</t>
   </si>
@@ -31,30 +31,36 @@
     <t>frame</t>
   </si>
   <si>
-    <t>test2_audio/clasify.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/crasify.wav</t>
+    <t>tafo</t>
+  </si>
+  <si>
+    <t>test2_audio/clasib.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/crasib.wav</t>
   </si>
   <si>
     <t>f</t>
   </si>
   <si>
-    <t>−0.047</t>
-  </si>
-  <si>
-    <t>L</t>
+    <t>class</t>
   </si>
   <si>
     <t>clas</t>
   </si>
   <si>
+    <t>target</t>
+  </si>
+  <si>
     <t>test2_audio/planaquer.wav</t>
   </si>
   <si>
     <t>test2_audio/pranaquer.wav</t>
   </si>
   <si>
+    <t>plane</t>
+  </si>
+  <si>
     <t>plan</t>
   </si>
   <si>
@@ -67,13 +73,19 @@
     <t>j</t>
   </si>
   <si>
+    <t>closet</t>
+  </si>
+  <si>
     <t>clos</t>
   </si>
   <si>
-    <t>test2_audio/pracar.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/placar.wav</t>
+    <t>test2_audio/praicin.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/plaicin.wav</t>
+  </si>
+  <si>
+    <t>place</t>
   </si>
   <si>
     <t>plac</t>
@@ -85,13 +97,19 @@
     <t>test2_audio/alonuny.wav</t>
   </si>
   <si>
+    <t>alone</t>
+  </si>
+  <si>
     <t>alon</t>
   </si>
   <si>
-    <t>test2_audio/sreekery.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/sleekery.wav</t>
+    <t>test2_audio/sreedery.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/sleedery.wav</t>
+  </si>
+  <si>
+    <t>sleep</t>
   </si>
   <si>
     <t>slee</t>
@@ -103,37 +121,52 @@
     <t>test2_audio/prenth.wav</t>
   </si>
   <si>
+    <t>plenty</t>
+  </si>
+  <si>
     <t>plen</t>
   </si>
   <si>
-    <t>test2_audio/criement.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/cliement.wav</t>
+    <t>test2_audio/criemed.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/cliemed.wav</t>
+  </si>
+  <si>
+    <t>client</t>
   </si>
   <si>
     <t>clie</t>
   </si>
   <si>
-    <t>test2_audio/pranjuicy.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/planjuicy.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/pleaspot.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/preaspot.wav</t>
+    <t>test2_audio/pranjuk.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/planjuk.wav</t>
+  </si>
+  <si>
+    <t>planet</t>
+  </si>
+  <si>
+    <t>test2_audio/pleaspog.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/preaspog.wav</t>
+  </si>
+  <si>
+    <t>please</t>
   </si>
   <si>
     <t>plea</t>
   </si>
   <si>
-    <t>test2_audio/armotant.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/almotant.wav</t>
+    <t>test2_audio/armod.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/almod.wav</t>
+  </si>
+  <si>
+    <t>almost</t>
   </si>
   <si>
     <t>almo</t>
@@ -145,79 +178,79 @@
     <t>test2_audio/althen.wav</t>
   </si>
   <si>
+    <t>although</t>
+  </si>
+  <si>
     <t>alth</t>
   </si>
   <si>
-    <t>test2_audio/promjase.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/plomjase.wav</t>
-  </si>
-  <si>
-    <t>R</t>
+    <t>test2_audio/promjax.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/plomjax.wav</t>
+  </si>
+  <si>
+    <t>promise</t>
   </si>
   <si>
     <t>prom</t>
   </si>
   <si>
-    <t>test2_audio/floncyvic.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/froncyvic.wav</t>
+    <t>test2_audio/flontis.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/frontis.wav</t>
+  </si>
+  <si>
+    <t>front</t>
   </si>
   <si>
     <t>fron</t>
   </si>
   <si>
-    <t>test2_audio/plougua.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/prougua.wav</t>
+    <t>test2_audio/ploug.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/proug.wav</t>
+  </si>
+  <si>
+    <t>proud</t>
   </si>
   <si>
     <t>prou</t>
   </si>
   <si>
-    <t>test2_audio/frieby.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/flieby.wav</t>
-  </si>
-  <si>
-    <t>frie</t>
-  </si>
-  <si>
-    <t>test2_audio/oldekasen.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/ordekasen.wav</t>
-  </si>
-  <si>
-    <t>orde</t>
-  </si>
-  <si>
-    <t>test2_audio/dreagacy.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/dleagacy.wav</t>
+    <t>test2_audio/dreegacy.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/dleegacy.wav</t>
+  </si>
+  <si>
+    <t>dream</t>
   </si>
   <si>
     <t>drea</t>
   </si>
   <si>
+    <t>test2_audio/dlesizen.wav</t>
+  </si>
+  <si>
     <t>test2_audio/dresizen.wav</t>
   </si>
   <si>
-    <t>test2_audio/dlesizen.wav</t>
+    <t>dress</t>
   </si>
   <si>
     <t>dres</t>
   </si>
   <si>
-    <t>test2_audio/gleacan.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/greacan.wav</t>
+    <t>test2_audio/greabcad.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/gleabcad.wav</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>grea</t>
@@ -229,6 +262,9 @@
     <t>test2_audio/blotham.wav</t>
   </si>
   <si>
+    <t>brother</t>
+  </si>
+  <si>
     <t>brot</t>
   </si>
   <si>
@@ -238,79 +274,52 @@
     <t>test2_audio/arouval.wav</t>
   </si>
   <si>
+    <t>around</t>
+  </si>
+  <si>
     <t>arou</t>
   </si>
   <si>
-    <t>test2_audio/freeka.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/fleeka.wav</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>test2_audio/trusiam.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/tlusiam.wav</t>
-  </si>
-  <si>
-    <t>trus</t>
-  </si>
-  <si>
-    <t>test2_audio/brinkaiser.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/blinkaiser.wav</t>
-  </si>
-  <si>
-    <t>brin</t>
-  </si>
-  <si>
-    <t>test2_audio/bleajery.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/breajery.wav</t>
+    <t>test2_audio/brejeny.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/blejeny.wav</t>
+  </si>
+  <si>
+    <t>break</t>
   </si>
   <si>
     <t>brea</t>
   </si>
   <si>
-    <t>test2_audio/teplayin.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/teprayin.wav</t>
-  </si>
-  <si>
-    <t>−0.007</t>
+    <t>test2_audio/prayb.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/playb.wav</t>
   </si>
   <si>
     <t>play</t>
   </si>
   <si>
-    <t>test2_audio/cluits.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/cruits.wav</t>
+    <t>test2_audio/bocurit.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/boculit.wav</t>
+  </si>
+  <si>
+    <t>security</t>
   </si>
   <si>
     <t>cruit</t>
   </si>
   <si>
-    <t>test2_audio/coyearance.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/coyealance.wav</t>
-  </si>
-  <si>
-    <t>year</t>
+    <t>test2_audio/guportany.wav</t>
   </si>
   <si>
     <t>test2_audio/gupoltany.wav</t>
   </si>
   <si>
-    <t>test2_audio/guportany.wav</t>
+    <t>important</t>
   </si>
   <si>
     <t>porta</t>
@@ -322,88 +331,124 @@
     <t>test2_audio/lufolmaive.wav</t>
   </si>
   <si>
+    <t>information</t>
+  </si>
+  <si>
     <t>forma</t>
   </si>
   <si>
+    <t>test2_audio/wepaltmony.wav</t>
+  </si>
+  <si>
     <t>test2_audio/wepartmony.wav</t>
   </si>
   <si>
-    <t>test2_audio/wepaltmony.wav</t>
+    <t>apartment</t>
   </si>
   <si>
     <t>partm</t>
   </si>
   <si>
-    <t>test2_audio/hecrub.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/heclub.wav</t>
-  </si>
-  <si>
-    <t>club</t>
-  </si>
-  <si>
-    <t>test2_audio/sublow.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/subrow.wav</t>
-  </si>
-  <si>
-    <t>blow</t>
-  </si>
-  <si>
-    <t>test2_audio/siprus.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/siplus.wav</t>
-  </si>
-  <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>test2_audio/moalso.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/moarso.wav</t>
-  </si>
-  <si>
-    <t>also</t>
+    <t>test2_audio/gaglad.wav</t>
   </si>
   <si>
     <t>test2_audio/gagrad.wav</t>
   </si>
   <si>
-    <t>test2_audio/gaglad.wav</t>
-  </si>
-  <si>
     <t>glad</t>
   </si>
   <si>
+    <t>test2_audio/srowaik.wav</t>
+  </si>
+  <si>
     <t>test2_audio/slowaik.wav</t>
   </si>
   <si>
-    <t>test2_audio/srowaik.wav</t>
-  </si>
-  <si>
     <t>slow</t>
   </si>
   <si>
-    <t>test2_audio/mubndled.wav</t>
-  </si>
-  <si>
-    <t>test2_audio/mubndred.wav</t>
-  </si>
-  <si>
-    <t>ndred</t>
+    <t>test2_audio/caport.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/capolt.wav</t>
+  </si>
+  <si>
+    <t>report</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>test2_audio/jualmyand.wav</t>
   </si>
   <si>
     <t>test2_audio/juarmyand.wav</t>
   </si>
   <si>
-    <t>test2_audio/jualmyand.wav</t>
-  </si>
-  <si>
     <t>army</t>
+  </si>
+  <si>
+    <t>test2_audio/vints.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/bints.wav</t>
+  </si>
+  <si>
+    <t>foil</t>
+  </si>
+  <si>
+    <t>test2_audio/tivs.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/tibs.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/yimf.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/yimp.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/bibed.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/bived.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/staib.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/staiv.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/pekunt.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/fekunt.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/theeve.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/theebe.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/speam.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/sfeam.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/vuige.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/buigue.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/fubunt.wav</t>
+  </si>
+  <si>
+    <t>test2_audio/vubunt.wav</t>
   </si>
 </sst>
 </file>
@@ -417,7 +462,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
       <name val="Helvetica"/>
     </font>
   </fonts>
@@ -440,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -448,8 +492,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -482,811 +528,874 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>30</v>
+        <v>9</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>9</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>41</v>
+        <v>19</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.0466</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>48</v>
+      <c r="E14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D15" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>51</v>
+      <c r="E15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D16" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>54</v>
+      <c r="E16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>57</v>
+      <c r="E17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>60</v>
+      <c r="E18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
+      <c r="E19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>66</v>
+      <c r="E20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2">
-        <v>0.0466</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>69</v>
+        <v>0.0465</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>72</v>
+      <c r="E22" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2">
-        <v>0.0465</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>75</v>
+        <v>0.0072</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>78</v>
+      <c r="E24" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2">
-        <v>0.0466</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>81</v>
+        <v>0.0038</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>82</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>0.0466</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>0.0038</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D27" s="2">
-        <v>0.0466</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>87</v>
+        <v>0.0038</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>91</v>
+        <v>9</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.0072</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D29" s="2">
         <v>0.0466</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>94</v>
+      <c r="E29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2">
-        <v>0.0065</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>97</v>
+        <v>0.0038</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2">
-        <v>0.0038</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>100</v>
+        <v>0.0466</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="2">
-        <v>0.0038</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>9</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="2">
-        <v>0.0038</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>106</v>
+        <v>9</v>
+      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>109</v>
+        <v>19</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>112</v>
+        <v>9</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>113</v>
+        <v>134</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>115</v>
+        <v>19</v>
+      </c>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>118</v>
+        <v>9</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>121</v>
+        <v>19</v>
+      </c>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>124</v>
+        <v>9</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D40" s="2">
-        <v>0.0065</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="2">
-        <v>0.0466</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>130</v>
+        <v>9</v>
+      </c>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="1" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
